--- a/src/main/resources/excel/monster/monsterDistribution.xlsx
+++ b/src/main/resources/excel/monster/monsterDistribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE0C3D5-6AA9-4171-89AA-23F31209C6FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213BB857-367A-4961-A0CE-691F69C8BE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4548" yWindow="2580" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="792" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -462,6 +462,40 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excel/monster/monsterDistribution.xlsx
+++ b/src/main/resources/excel/monster/monsterDistribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213BB857-367A-4961-A0CE-691F69C8BE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3943190-18CC-420B-9CA6-92676DFD5699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="792" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8976" yWindow="3396" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -496,6 +496,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excel/monster/monsterDistribution.xlsx
+++ b/src/main/resources/excel/monster/monsterDistribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3943190-18CC-420B-9CA6-92676DFD5699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AB6504-18A2-4C24-A7EA-468E90EB6EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8976" yWindow="3396" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="19008" windowHeight="10164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -405,10 +405,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -416,16 +416,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -433,84 +433,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/monster/monsterDistribution.xlsx
+++ b/src/main/resources/excel/monster/monsterDistribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AB6504-18A2-4C24-A7EA-468E90EB6EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99AD296-D688-4AAE-AEF8-5BCC6C7C7B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="19008" windowHeight="10164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1320" windowWidth="19008" windowHeight="10164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -405,10 +405,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
